--- a/3_Analysis_Excels/QoQ - ifo_naive_ifoCAST - latest release.xlsx
+++ b/3_Analysis_Excels/QoQ - ifo_naive_ifoCAST - latest release.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/3_Analysis_Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="8_{C8633DC1-0678-44D8-A406-195500882EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{601E763C-049E-4C8B-B2C3-61521260223A}"/>
+  <xr:revisionPtr revIDLastSave="359" documentId="8_{C8633DC1-0678-44D8-A406-195500882EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67240AED-0BBF-4B9E-97AF-F05BA8EACA9B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Naive - ifo" sheetId="1" r:id="rId1"/>
@@ -10139,7 +10139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBEF3A5-5AFF-4B8D-BE99-DBDC3650088B}">
   <dimension ref="B2:X68"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="75" workbookViewId="0">
       <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
@@ -11575,8 +11575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68FB474-FC50-4624-86F7-51C40E4033B2}">
   <dimension ref="B2:X68"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60:H61"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12969,7 +12969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C910A0-0D45-4C16-B1BE-B18E1B02119C}">
   <dimension ref="B2:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+    <sheetView zoomScale="78" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
